--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lcn2-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lcn2-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Lcn2</t>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -540,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3828496666666667</v>
+        <v>0.253491</v>
       </c>
       <c r="H2">
-        <v>1.148549</v>
+        <v>0.760473</v>
       </c>
       <c r="I2">
-        <v>0.09432491291845502</v>
+        <v>0.1668803308144225</v>
       </c>
       <c r="J2">
-        <v>0.09432491291845502</v>
+        <v>0.1668803308144225</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,54 +558,54 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0007517891287777778</v>
+        <v>0.000497771827</v>
       </c>
       <c r="R2">
-        <v>0.006766102158999999</v>
+        <v>0.004479946443</v>
       </c>
       <c r="S2">
-        <v>0.005882513015981394</v>
+        <v>0.1668803308144225</v>
       </c>
       <c r="T2">
-        <v>0.005882513015981394</v>
+        <v>0.1668803308144225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3828496666666667</v>
+        <v>1.188789333333333</v>
       </c>
       <c r="H3">
-        <v>1.148549</v>
+        <v>3.566368</v>
       </c>
       <c r="I3">
-        <v>0.09432491291845502</v>
+        <v>0.7826138096237084</v>
       </c>
       <c r="J3">
-        <v>0.09432491291845502</v>
+        <v>0.7826138096237083</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,60 +614,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01130299832555556</v>
+        <v>0.002334385987555556</v>
       </c>
       <c r="R3">
-        <v>0.10172698493</v>
+        <v>0.021009473888</v>
       </c>
       <c r="S3">
-        <v>0.08844239990247363</v>
+        <v>0.7826138096237084</v>
       </c>
       <c r="T3">
-        <v>0.08844239990247363</v>
+        <v>0.7826138096237083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.188789333333333</v>
+        <v>0.07671833333333333</v>
       </c>
       <c r="H4">
-        <v>3.566368</v>
+        <v>0.230155</v>
       </c>
       <c r="I4">
-        <v>0.292888985176222</v>
+        <v>0.05050585956186927</v>
       </c>
       <c r="J4">
-        <v>0.292888985176222</v>
+        <v>0.05050585956186927</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,456 +682,22 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002334385987555555</v>
+        <v>0.0001506492338888889</v>
       </c>
       <c r="R4">
-        <v>0.021009473888</v>
+        <v>0.001355843105</v>
       </c>
       <c r="S4">
-        <v>0.01826583470080905</v>
+        <v>0.05050585956186927</v>
       </c>
       <c r="T4">
-        <v>0.01826583470080905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.188789333333333</v>
-      </c>
-      <c r="H5">
-        <v>3.566368</v>
-      </c>
-      <c r="I5">
-        <v>0.292888985176222</v>
-      </c>
-      <c r="J5">
-        <v>0.292888985176222</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P5">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q5">
-        <v>0.03509702375111111</v>
-      </c>
-      <c r="R5">
-        <v>0.31587321376</v>
-      </c>
-      <c r="S5">
-        <v>0.274623150475413</v>
-      </c>
-      <c r="T5">
-        <v>0.274623150475413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.5425443333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.627633</v>
-      </c>
-      <c r="I6">
-        <v>0.1336698225223336</v>
-      </c>
-      <c r="J6">
-        <v>0.1336698225223336</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.005891</v>
-      </c>
-      <c r="O6">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P6">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q6">
-        <v>0.001065376222555555</v>
-      </c>
-      <c r="R6">
-        <v>0.009588386002999999</v>
-      </c>
-      <c r="S6">
-        <v>0.008336233201840621</v>
-      </c>
-      <c r="T6">
-        <v>0.008336233201840621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.5425443333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.627633</v>
-      </c>
-      <c r="I7">
-        <v>0.1336698225223336</v>
-      </c>
-      <c r="J7">
-        <v>0.1336698225223336</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>0.01601771720111111</v>
-      </c>
-      <c r="R7">
-        <v>0.14415945481</v>
-      </c>
-      <c r="S7">
-        <v>0.125333589320493</v>
-      </c>
-      <c r="T7">
-        <v>0.125333589320493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.07491466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.224744</v>
-      </c>
-      <c r="I8">
-        <v>0.0184571648479475</v>
-      </c>
-      <c r="J8">
-        <v>0.0184571648479475</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.005891</v>
-      </c>
-      <c r="O8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q8">
-        <v>0.0001471074337777778</v>
-      </c>
-      <c r="R8">
-        <v>0.001323966904</v>
-      </c>
-      <c r="S8">
-        <v>0.001151069310289524</v>
-      </c>
-      <c r="T8">
-        <v>0.001151069310289524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.07491466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.224744</v>
-      </c>
-      <c r="I9">
-        <v>0.0184571648479475</v>
-      </c>
-      <c r="J9">
-        <v>0.0184571648479475</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q9">
-        <v>0.002211730675555556</v>
-      </c>
-      <c r="R9">
-        <v>0.01990557608</v>
-      </c>
-      <c r="S9">
-        <v>0.01730609553765798</v>
-      </c>
-      <c r="T9">
-        <v>0.01730609553765798</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.869741333333333</v>
-      </c>
-      <c r="H10">
-        <v>5.609224</v>
-      </c>
-      <c r="I10">
-        <v>0.460659114535042</v>
-      </c>
-      <c r="J10">
-        <v>0.460659114535042</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.005891</v>
-      </c>
-      <c r="O10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q10">
-        <v>0.003671548731555555</v>
-      </c>
-      <c r="R10">
-        <v>0.033043938584</v>
-      </c>
-      <c r="S10">
-        <v>0.02872871178291498</v>
-      </c>
-      <c r="T10">
-        <v>0.02872871178291498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.869741333333333</v>
-      </c>
-      <c r="H11">
-        <v>5.609224</v>
-      </c>
-      <c r="I11">
-        <v>0.460659114535042</v>
-      </c>
-      <c r="J11">
-        <v>0.460659114535042</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q11">
-        <v>0.05520099663111112</v>
-      </c>
-      <c r="R11">
-        <v>0.4968089696800001</v>
-      </c>
-      <c r="S11">
-        <v>0.4319304027521271</v>
-      </c>
-      <c r="T11">
-        <v>0.4319304027521271</v>
+        <v>0.05050585956186927</v>
       </c>
     </row>
   </sheetData>
